--- a/src/test/resources/excelFiles/Test_01.xlsx
+++ b/src/test/resources/excelFiles/Test_01.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>Tyson</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA51D7-BE69-474C-97C2-B4B837B51F5F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -415,6 +418,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/excelFiles/Test_01.xlsx
+++ b/src/test/resources/excelFiles/Test_01.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manas\IdeaProjects\Test_UI_DB_API\src\test\resources\excelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuasoev/IdeaProjects/Test_UI_DB_API/src/test/resources/excelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100490CC-22D6-41CD-84AD-F08E78C1A51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBC4BF-85D4-5944-97B1-41BC73B88C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{BDE539D3-9850-40CF-B65C-BFE4B48D1F9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="17120" activeTab="1" xr2:uid="{BDE539D3-9850-40CF-B65C-BFE4B48D1F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
+    <sheet name="TripReports" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -44,10 +44,52 @@
     <t>Mike</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>Tyson</t>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>driver ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unit </t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Jerrymil</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>Columbus, OH</t>
   </si>
 </sst>
 </file>
@@ -84,8 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,30 +448,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CA51D7-BE69-474C-97C2-B4B837B51F5F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A8350B-ECB5-354D-B8FF-2871055BCC7E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
